--- a/static/七号楼教室一览表.xlsx
+++ b/static/七号楼教室一览表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dd\Python\TempClassRoomSearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\github\DGCU-SearchFreeClassRoomV2\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B49801-E77F-4788-8D98-EBF77DABCA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817E2C87-0EA3-4B5E-8F57-16FEF3D43314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="37">
   <si>
     <t>楼层</t>
   </si>
@@ -67,9 +67,6 @@
     <t>特大</t>
   </si>
   <si>
-    <t>112-113合并</t>
-  </si>
-  <si>
     <t>考研专用</t>
   </si>
   <si>
@@ -113,6 +110,46 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽毛球场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合馆-羽毛球场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号楼B区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊智慧教室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>素描</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,35 +525,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -536,10 +574,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -556,10 +594,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -576,10 +614,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -596,10 +634,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -616,10 +654,10 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -636,10 +674,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -656,10 +694,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -676,10 +714,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -696,10 +734,10 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -716,10 +754,10 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -736,10 +774,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -756,10 +794,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -776,10 +814,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -796,10 +834,10 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -816,10 +854,10 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -836,10 +874,10 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -856,10 +894,10 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -876,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -896,10 +934,10 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -916,10 +954,10 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -936,10 +974,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -956,10 +994,10 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -976,10 +1014,10 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -996,10 +1034,10 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -1016,10 +1054,10 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1036,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -1056,10 +1094,10 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1076,10 +1114,10 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1096,10 +1134,10 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1116,10 +1154,10 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1136,10 +1174,10 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1156,13 +1194,13 @@
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -1179,10 +1217,10 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1199,10 +1237,10 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -1219,10 +1257,10 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -1239,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
         <v>25</v>
@@ -1259,10 +1297,10 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -1279,10 +1317,10 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1299,10 +1337,10 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -1316,13 +1354,16 @@
         <v>304</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -1339,10 +1380,10 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -1359,10 +1400,10 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -1379,10 +1420,10 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -1399,10 +1440,10 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -1419,10 +1460,10 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -1439,10 +1480,10 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -1459,13 +1500,13 @@
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1479,13 +1520,13 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1499,13 +1540,13 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1519,13 +1560,13 @@
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1539,13 +1580,13 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1559,13 +1600,13 @@
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1576,16 +1617,16 @@
         <v>317</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1599,13 +1640,13 @@
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1619,13 +1660,13 @@
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1639,13 +1680,13 @@
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1659,13 +1700,13 @@
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1679,13 +1720,13 @@
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1699,13 +1740,13 @@
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1719,13 +1760,13 @@
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1736,16 +1777,19 @@
         <v>404</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1759,13 +1803,13 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1779,13 +1823,13 @@
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -1799,13 +1843,13 @@
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -1819,13 +1863,13 @@
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1839,13 +1883,13 @@
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1856,16 +1900,16 @@
         <v>410</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -1879,13 +1923,13 @@
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -1899,13 +1943,13 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -1919,13 +1963,13 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -1939,13 +1983,13 @@
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -1959,13 +2003,13 @@
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -1976,16 +2020,19 @@
         <v>416</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -1999,13 +2046,13 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2019,13 +2066,13 @@
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2039,13 +2086,13 @@
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2056,16 +2103,16 @@
         <v>420</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2079,13 +2126,13 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2099,13 +2146,13 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -2119,13 +2166,13 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -2139,13 +2186,13 @@
         <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -2159,13 +2206,13 @@
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -2179,13 +2226,13 @@
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -2199,13 +2246,13 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -2219,13 +2266,13 @@
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -2239,13 +2286,13 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2256,16 +2303,16 @@
         <v>510</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F88" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2279,13 +2326,13 @@
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -2299,13 +2346,13 @@
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -2319,13 +2366,13 @@
         <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F91" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -2339,13 +2386,13 @@
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -2356,16 +2403,19 @@
         <v>515</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -2379,13 +2429,13 @@
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -2399,13 +2449,13 @@
         <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -2419,10 +2469,10 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
@@ -2436,10 +2486,10 @@
         <v>519</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
         <v>25</v>
@@ -2456,13 +2506,13 @@
         <v>601</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -2479,10 +2529,10 @@
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -2499,10 +2549,10 @@
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -2519,10 +2569,10 @@
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
@@ -2539,10 +2589,10 @@
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -2559,10 +2609,10 @@
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -2579,10 +2629,10 @@
         <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -2599,10 +2649,10 @@
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
@@ -2619,10 +2669,10 @@
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -2639,30 +2689,30 @@
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C108">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -2673,16 +2723,16 @@
         <v>7</v>
       </c>
       <c r="C109">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
@@ -2696,16 +2746,19 @@
         <v>7</v>
       </c>
       <c r="C110">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -2716,16 +2769,19 @@
         <v>7</v>
       </c>
       <c r="C111">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -2736,16 +2792,19 @@
         <v>7</v>
       </c>
       <c r="C112">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -2756,16 +2815,16 @@
         <v>7</v>
       </c>
       <c r="C113">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -2776,16 +2835,16 @@
         <v>7</v>
       </c>
       <c r="C114">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -2796,16 +2855,16 @@
         <v>7</v>
       </c>
       <c r="C115">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -2816,16 +2875,16 @@
         <v>7</v>
       </c>
       <c r="C116">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -2836,13 +2895,13 @@
         <v>7</v>
       </c>
       <c r="C117">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
         <v>25</v>
@@ -2856,16 +2915,16 @@
         <v>7</v>
       </c>
       <c r="C118">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -2876,13 +2935,13 @@
         <v>7</v>
       </c>
       <c r="C119">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
         <v>25</v>
@@ -2896,16 +2955,16 @@
         <v>7</v>
       </c>
       <c r="C120">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
@@ -2916,16 +2975,16 @@
         <v>7</v>
       </c>
       <c r="C121">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -2936,16 +2995,16 @@
         <v>7</v>
       </c>
       <c r="C122">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -2956,16 +3015,16 @@
         <v>7</v>
       </c>
       <c r="C123">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -2976,16 +3035,16 @@
         <v>7</v>
       </c>
       <c r="C124">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -2993,19 +3052,19 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -3016,19 +3075,19 @@
         <v>8</v>
       </c>
       <c r="C126">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -3039,16 +3098,19 @@
         <v>8</v>
       </c>
       <c r="C127">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F127" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -3059,16 +3121,16 @@
         <v>8</v>
       </c>
       <c r="C128">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
@@ -3079,16 +3141,16 @@
         <v>8</v>
       </c>
       <c r="C129">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -3099,16 +3161,16 @@
         <v>8</v>
       </c>
       <c r="C130">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
@@ -3119,16 +3181,16 @@
         <v>8</v>
       </c>
       <c r="C131">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
@@ -3139,16 +3201,16 @@
         <v>8</v>
       </c>
       <c r="C132">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -3159,16 +3221,16 @@
         <v>8</v>
       </c>
       <c r="C133">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
@@ -3179,13 +3241,13 @@
         <v>8</v>
       </c>
       <c r="C134">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
         <v>25</v>
@@ -3199,16 +3261,16 @@
         <v>8</v>
       </c>
       <c r="C135">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
@@ -3219,16 +3281,16 @@
         <v>8</v>
       </c>
       <c r="C136">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -3239,13 +3301,13 @@
         <v>8</v>
       </c>
       <c r="C137">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
         <v>25</v>
@@ -3259,16 +3321,16 @@
         <v>8</v>
       </c>
       <c r="C138">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
@@ -3279,16 +3341,16 @@
         <v>8</v>
       </c>
       <c r="C139">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
@@ -3299,16 +3361,16 @@
         <v>8</v>
       </c>
       <c r="C140">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
@@ -3319,16 +3381,16 @@
         <v>8</v>
       </c>
       <c r="C141">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
@@ -3339,16 +3401,16 @@
         <v>8</v>
       </c>
       <c r="C142">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
@@ -3356,19 +3418,19 @@
         <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C143">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
@@ -3379,16 +3441,16 @@
         <v>9</v>
       </c>
       <c r="C144">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D144" t="s">
         <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -3399,16 +3461,16 @@
         <v>9</v>
       </c>
       <c r="C145">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -3419,16 +3481,16 @@
         <v>9</v>
       </c>
       <c r="C146">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
@@ -3439,16 +3501,16 @@
         <v>9</v>
       </c>
       <c r="C147">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
@@ -3459,16 +3521,16 @@
         <v>9</v>
       </c>
       <c r="C148">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -3479,16 +3541,16 @@
         <v>9</v>
       </c>
       <c r="C149">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
@@ -3499,20 +3561,17 @@
         <v>9</v>
       </c>
       <c r="C150">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D150" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F150" t="s">
         <v>25</v>
       </c>
-      <c r="G150" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
@@ -3522,16 +3581,19 @@
         <v>9</v>
       </c>
       <c r="C151">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E151" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F151" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G151" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -3542,13 +3604,13 @@
         <v>9</v>
       </c>
       <c r="C152">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F152" t="s">
         <v>25</v>
@@ -3562,16 +3624,16 @@
         <v>9</v>
       </c>
       <c r="C153">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D153" t="s">
         <v>13</v>
       </c>
       <c r="E153" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -3582,16 +3644,16 @@
         <v>9</v>
       </c>
       <c r="C154">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -3602,16 +3664,16 @@
         <v>9</v>
       </c>
       <c r="C155">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
       </c>
       <c r="E155" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
@@ -3622,16 +3684,16 @@
         <v>9</v>
       </c>
       <c r="C156">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
@@ -3642,16 +3704,16 @@
         <v>9</v>
       </c>
       <c r="C157">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -3662,16 +3724,16 @@
         <v>9</v>
       </c>
       <c r="C158">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -3679,19 +3741,19 @@
         <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C159">
-        <v>501</v>
+        <v>416</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -3702,16 +3764,16 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D160" t="s">
         <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
@@ -3722,16 +3784,16 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
@@ -3742,16 +3804,16 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
@@ -3762,16 +3824,16 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
@@ -3782,16 +3844,16 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
@@ -3802,16 +3864,16 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
@@ -3822,16 +3884,16 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
@@ -3842,16 +3904,16 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
@@ -3862,16 +3924,16 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
@@ -3882,16 +3944,16 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E169" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
@@ -3902,16 +3964,16 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D170" t="s">
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
@@ -3922,16 +3984,16 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
@@ -3942,16 +4004,16 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D172" t="s">
         <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
@@ -3962,16 +4024,16 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D173" t="s">
         <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
@@ -3982,16 +4044,16 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D174" t="s">
         <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
@@ -4002,16 +4064,16 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D175" t="s">
         <v>12</v>
       </c>
       <c r="E175" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
@@ -4019,22 +4081,22 @@
         <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C176">
-        <v>601</v>
+        <v>517</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E176" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F176" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4042,19 +4104,19 @@
         <v>11</v>
       </c>
       <c r="C177">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D177" t="s">
         <v>13</v>
       </c>
       <c r="E177" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F177" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4062,19 +4124,19 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F178" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4082,19 +4144,19 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F179" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4102,19 +4164,19 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F180" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -4122,19 +4184,19 @@
         <v>11</v>
       </c>
       <c r="C181">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F181" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -4142,19 +4204,19 @@
         <v>11</v>
       </c>
       <c r="C182">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D182" t="s">
         <v>12</v>
       </c>
       <c r="E182" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F182" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4162,19 +4224,19 @@
         <v>11</v>
       </c>
       <c r="C183">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F183" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -4182,19 +4244,19 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D184" t="s">
         <v>13</v>
       </c>
       <c r="E184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F184" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -4202,19 +4264,19 @@
         <v>11</v>
       </c>
       <c r="C185">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E185" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F185" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -4222,19 +4284,19 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D186" t="s">
         <v>12</v>
       </c>
       <c r="E186" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F186" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -4242,19 +4304,19 @@
         <v>11</v>
       </c>
       <c r="C187">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D187" t="s">
         <v>12</v>
       </c>
       <c r="E187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F187" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -4262,19 +4324,19 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D188" t="s">
         <v>12</v>
       </c>
       <c r="E188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F188" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4282,39 +4344,39 @@
         <v>11</v>
       </c>
       <c r="C189">
+        <v>613</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>26</v>
+      </c>
+      <c r="F189" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190">
         <v>614</v>
       </c>
-      <c r="D189" t="s">
-        <v>12</v>
-      </c>
-      <c r="E189" t="s">
-        <v>27</v>
-      </c>
-      <c r="F189" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B190" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190">
-        <v>101</v>
-      </c>
       <c r="D190" t="s">
         <v>12</v>
       </c>
       <c r="E190" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F190" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -4322,19 +4384,22 @@
         <v>6</v>
       </c>
       <c r="C191">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F191" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -4342,16 +4407,19 @@
         <v>6</v>
       </c>
       <c r="C192">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E192" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F192" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G192" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
@@ -4362,16 +4430,19 @@
         <v>6</v>
       </c>
       <c r="C193">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F193" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G193" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -4382,16 +4453,19 @@
         <v>6</v>
       </c>
       <c r="C194">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E194" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F194" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G194" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -4402,16 +4476,19 @@
         <v>6</v>
       </c>
       <c r="C195">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F195" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G195" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
@@ -4422,16 +4499,19 @@
         <v>6</v>
       </c>
       <c r="C196">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E196" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F196" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G196" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
@@ -4442,16 +4522,19 @@
         <v>6</v>
       </c>
       <c r="C197">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D197" t="s">
         <v>13</v>
       </c>
       <c r="E197" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F197" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G197" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
@@ -4462,16 +4545,19 @@
         <v>6</v>
       </c>
       <c r="C198">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D198" t="s">
         <v>13</v>
       </c>
       <c r="E198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F198" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G198" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
@@ -4482,16 +4568,19 @@
         <v>6</v>
       </c>
       <c r="C199">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D199" t="s">
         <v>13</v>
       </c>
       <c r="E199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F199" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G199" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -4502,16 +4591,19 @@
         <v>6</v>
       </c>
       <c r="C200">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D200" t="s">
         <v>13</v>
       </c>
       <c r="E200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F200" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G200" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -4522,19 +4614,19 @@
         <v>6</v>
       </c>
       <c r="C201">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E201" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G201" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
@@ -4545,16 +4637,19 @@
         <v>6</v>
       </c>
       <c r="C202">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E202" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F202" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G202" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -4565,16 +4660,19 @@
         <v>6</v>
       </c>
       <c r="C203">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E203" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F203" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G203" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
@@ -4582,19 +4680,22 @@
         <v>5</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="D204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E204" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F204" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G204" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
@@ -4605,16 +4706,16 @@
         <v>7</v>
       </c>
       <c r="C205">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D205" t="s">
         <v>12</v>
       </c>
       <c r="E205" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
@@ -4625,16 +4726,16 @@
         <v>7</v>
       </c>
       <c r="C206">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D206" t="s">
         <v>12</v>
       </c>
       <c r="E206" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
@@ -4645,16 +4746,16 @@
         <v>7</v>
       </c>
       <c r="C207">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D207" t="s">
         <v>12</v>
       </c>
       <c r="E207" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
@@ -4665,16 +4766,16 @@
         <v>7</v>
       </c>
       <c r="C208">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E208" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
@@ -4685,16 +4786,16 @@
         <v>7</v>
       </c>
       <c r="C209">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F209" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
@@ -4705,16 +4806,16 @@
         <v>7</v>
       </c>
       <c r="C210">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D210" t="s">
         <v>12</v>
       </c>
       <c r="E210" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
@@ -4725,16 +4826,16 @@
         <v>7</v>
       </c>
       <c r="C211">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D211" t="s">
         <v>12</v>
       </c>
       <c r="E211" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
@@ -4745,16 +4846,16 @@
         <v>7</v>
       </c>
       <c r="C212">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D212" t="s">
         <v>12</v>
       </c>
       <c r="E212" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
@@ -4765,16 +4866,16 @@
         <v>7</v>
       </c>
       <c r="C213">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
@@ -4785,16 +4886,16 @@
         <v>7</v>
       </c>
       <c r="C214">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D214" t="s">
         <v>13</v>
       </c>
       <c r="E214" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
@@ -4805,16 +4906,16 @@
         <v>7</v>
       </c>
       <c r="C215">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D215" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E215" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F215" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
@@ -4825,16 +4926,16 @@
         <v>7</v>
       </c>
       <c r="C216">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D216" t="s">
         <v>12</v>
       </c>
       <c r="E216" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F216" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
@@ -4845,16 +4946,16 @@
         <v>7</v>
       </c>
       <c r="C217">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D217" t="s">
         <v>12</v>
       </c>
       <c r="E217" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F217" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
@@ -4862,19 +4963,19 @@
         <v>5</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="D218" t="s">
         <v>12</v>
       </c>
       <c r="E218" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
@@ -4885,16 +4986,16 @@
         <v>8</v>
       </c>
       <c r="C219">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D219" t="s">
         <v>12</v>
       </c>
       <c r="E219" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F219" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
@@ -4905,16 +5006,16 @@
         <v>8</v>
       </c>
       <c r="C220">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D220" t="s">
         <v>12</v>
       </c>
       <c r="E220" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F220" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
@@ -4925,16 +5026,16 @@
         <v>8</v>
       </c>
       <c r="C221">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D221" t="s">
         <v>12</v>
       </c>
       <c r="E221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
@@ -4945,16 +5046,16 @@
         <v>8</v>
       </c>
       <c r="C222">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D222" t="s">
         <v>12</v>
       </c>
       <c r="E222" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
@@ -4965,16 +5066,16 @@
         <v>8</v>
       </c>
       <c r="C223">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D223" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E223" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
@@ -4985,16 +5086,16 @@
         <v>8</v>
       </c>
       <c r="C224">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D224" t="s">
         <v>12</v>
       </c>
       <c r="E224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F224" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
@@ -5005,16 +5106,16 @@
         <v>8</v>
       </c>
       <c r="C225">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D225" t="s">
         <v>12</v>
       </c>
       <c r="E225" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F225" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
@@ -5025,16 +5126,16 @@
         <v>8</v>
       </c>
       <c r="C226">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D226" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E226" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F226" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
@@ -5045,16 +5146,16 @@
         <v>8</v>
       </c>
       <c r="C227">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E227" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
@@ -5065,16 +5166,16 @@
         <v>8</v>
       </c>
       <c r="C228">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D228" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E228" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
@@ -5085,16 +5186,16 @@
         <v>8</v>
       </c>
       <c r="C229">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D229" t="s">
         <v>13</v>
       </c>
       <c r="E229" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
@@ -5105,16 +5206,16 @@
         <v>8</v>
       </c>
       <c r="C230">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D230" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E230" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
@@ -5125,16 +5226,16 @@
         <v>8</v>
       </c>
       <c r="C231">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D231" t="s">
         <v>12</v>
       </c>
       <c r="E231" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
@@ -5145,16 +5246,16 @@
         <v>8</v>
       </c>
       <c r="C232">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D232" t="s">
         <v>12</v>
       </c>
       <c r="E232" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
@@ -5162,19 +5263,19 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C233">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="D233" t="s">
         <v>12</v>
       </c>
       <c r="E233" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
@@ -5185,16 +5286,16 @@
         <v>9</v>
       </c>
       <c r="C234">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D234" t="s">
         <v>12</v>
       </c>
       <c r="E234" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
@@ -5205,16 +5306,16 @@
         <v>9</v>
       </c>
       <c r="C235">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D235" t="s">
         <v>12</v>
       </c>
       <c r="E235" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
@@ -5225,16 +5326,16 @@
         <v>9</v>
       </c>
       <c r="C236">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D236" t="s">
         <v>12</v>
       </c>
       <c r="E236" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
@@ -5245,16 +5346,16 @@
         <v>9</v>
       </c>
       <c r="C237">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D237" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E237" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
@@ -5265,16 +5366,16 @@
         <v>9</v>
       </c>
       <c r="C238">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D238" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E238" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F238" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
@@ -5285,16 +5386,16 @@
         <v>9</v>
       </c>
       <c r="C239">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D239" t="s">
         <v>12</v>
       </c>
       <c r="E239" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F239" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
@@ -5305,16 +5406,16 @@
         <v>9</v>
       </c>
       <c r="C240">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D240" t="s">
         <v>12</v>
       </c>
       <c r="E240" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F240" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.15">
@@ -5325,19 +5426,16 @@
         <v>9</v>
       </c>
       <c r="C241">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D241" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E241" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F241" t="s">
-        <v>25</v>
-      </c>
-      <c r="G241" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
@@ -5348,16 +5446,19 @@
         <v>9</v>
       </c>
       <c r="C242">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D242" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E242" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F242" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G242" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
@@ -5368,16 +5469,16 @@
         <v>9</v>
       </c>
       <c r="C243">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D243" t="s">
         <v>13</v>
       </c>
       <c r="E243" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
@@ -5388,16 +5489,16 @@
         <v>9</v>
       </c>
       <c r="C244">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D244" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E244" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F244" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
@@ -5408,16 +5509,16 @@
         <v>9</v>
       </c>
       <c r="C245">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D245" t="s">
         <v>12</v>
       </c>
       <c r="E245" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.15">
@@ -5428,16 +5529,16 @@
         <v>9</v>
       </c>
       <c r="C246">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D246" t="s">
         <v>12</v>
       </c>
       <c r="E246" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.15">
@@ -5445,19 +5546,19 @@
         <v>5</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C247">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="D247" t="s">
         <v>12</v>
       </c>
       <c r="E247" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -5468,16 +5569,16 @@
         <v>10</v>
       </c>
       <c r="C248">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D248" t="s">
         <v>12</v>
       </c>
       <c r="E248" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F248" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -5488,16 +5589,16 @@
         <v>10</v>
       </c>
       <c r="C249">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D249" t="s">
         <v>12</v>
       </c>
       <c r="E249" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
@@ -5508,16 +5609,16 @@
         <v>10</v>
       </c>
       <c r="C250">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D250" t="s">
         <v>12</v>
       </c>
       <c r="E250" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
@@ -5528,16 +5629,16 @@
         <v>10</v>
       </c>
       <c r="C251">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E251" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.15">
@@ -5548,16 +5649,16 @@
         <v>10</v>
       </c>
       <c r="C252">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D252" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E252" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F252" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
@@ -5568,16 +5669,16 @@
         <v>10</v>
       </c>
       <c r="C253">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D253" t="s">
         <v>12</v>
       </c>
       <c r="E253" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -5588,16 +5689,16 @@
         <v>10</v>
       </c>
       <c r="C254">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D254" t="s">
         <v>12</v>
       </c>
       <c r="E254" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
@@ -5608,16 +5709,16 @@
         <v>10</v>
       </c>
       <c r="C255">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D255" t="s">
         <v>12</v>
       </c>
       <c r="E255" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F255" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.15">
@@ -5628,16 +5729,16 @@
         <v>10</v>
       </c>
       <c r="C256">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D256" t="s">
         <v>13</v>
       </c>
       <c r="E256" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
@@ -5648,16 +5749,16 @@
         <v>10</v>
       </c>
       <c r="C257">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D257" t="s">
         <v>13</v>
       </c>
       <c r="E257" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
@@ -5668,16 +5769,16 @@
         <v>10</v>
       </c>
       <c r="C258">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D258" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E258" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F258" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
@@ -5688,16 +5789,16 @@
         <v>10</v>
       </c>
       <c r="C259">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D259" t="s">
         <v>12</v>
       </c>
       <c r="E259" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -5708,19 +5809,16 @@
         <v>10</v>
       </c>
       <c r="C260">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E260" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F260" t="s">
-        <v>25</v>
-      </c>
-      <c r="G260" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
@@ -5728,22 +5826,22 @@
         <v>5</v>
       </c>
       <c r="B261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C261">
-        <v>601</v>
+        <v>514</v>
       </c>
       <c r="D261" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E261" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G261" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
@@ -5754,16 +5852,19 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D262" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E262" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F262" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G262" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -5774,16 +5875,16 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D263" t="s">
         <v>12</v>
       </c>
       <c r="E263" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
@@ -5794,16 +5895,16 @@
         <v>11</v>
       </c>
       <c r="C264">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D264" t="s">
         <v>12</v>
       </c>
       <c r="E264" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
@@ -5814,16 +5915,16 @@
         <v>11</v>
       </c>
       <c r="C265">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D265" t="s">
         <v>12</v>
       </c>
       <c r="E265" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F265" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
@@ -5834,16 +5935,16 @@
         <v>11</v>
       </c>
       <c r="C266">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D266" t="s">
         <v>12</v>
       </c>
       <c r="E266" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F266" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
@@ -5854,16 +5955,16 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D267" t="s">
         <v>12</v>
       </c>
       <c r="E267" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F267" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
@@ -5874,16 +5975,16 @@
         <v>11</v>
       </c>
       <c r="C268">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D268" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E268" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F268" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -5894,16 +5995,16 @@
         <v>11</v>
       </c>
       <c r="C269">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D269" t="s">
         <v>13</v>
       </c>
       <c r="E269" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F269" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
@@ -5914,16 +6015,16 @@
         <v>11</v>
       </c>
       <c r="C270">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D270" t="s">
         <v>13</v>
       </c>
       <c r="E270" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F270" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.15">
@@ -5934,16 +6035,16 @@
         <v>11</v>
       </c>
       <c r="C271">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D271" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E271" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F271" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
@@ -5954,16 +6055,16 @@
         <v>11</v>
       </c>
       <c r="C272">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D272" t="s">
         <v>12</v>
       </c>
       <c r="E272" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F272" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.15">
@@ -5974,16 +6075,56 @@
         <v>11</v>
       </c>
       <c r="C273">
+        <v>612</v>
+      </c>
+      <c r="D273" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" t="s">
+        <v>26</v>
+      </c>
+      <c r="F273" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274">
         <v>613</v>
       </c>
-      <c r="D273" t="s">
-        <v>12</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="D274" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" t="s">
+        <v>26</v>
+      </c>
+      <c r="F274" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A275" t="s">
         <v>27</v>
       </c>
-      <c r="F273" t="s">
-        <v>25</v>
+      <c r="B275" t="s">
+        <v>28</v>
+      </c>
+      <c r="C275" t="s">
+        <v>29</v>
+      </c>
+      <c r="D275" t="s">
+        <v>30</v>
+      </c>
+      <c r="E275" t="s">
+        <v>31</v>
+      </c>
+      <c r="F275" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
